--- a/xlsxanalize/scr/data/калькулятор бара отчет.xlsx
+++ b/xlsxanalize/scr/data/калькулятор бара отчет.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Приход</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>имя расхода</t>
+  </si>
+  <si>
+    <t>qqq</t>
   </si>
 </sst>
 </file>
@@ -687,7 +690,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -718,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -794,7 +797,12 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>333</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
@@ -818,23 +826,23 @@
       </c>
       <c r="B10" s="15">
         <f>SUM(B2:B9)</f>
-        <v>5586</v>
+        <v>5697</v>
       </c>
       <c r="C10" s="15">
         <f>SUM(C2:C9)</f>
-        <v>1113</v>
+        <v>1446</v>
       </c>
       <c r="D10" s="16">
         <f>B10-C10</f>
-        <v>4473</v>
+        <v>4251</v>
       </c>
       <c r="E10" s="15">
         <f>F11*E11+E12*F12+F13*E13+F14*E14+F15*E15+F16*E16+F17*E17+F18*E18+F19+E20*F20</f>
-        <v>0</v>
+        <v>4140</v>
       </c>
       <c r="F10" s="17">
         <f>E10-D10</f>
-        <v>-4473</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -844,7 +852,9 @@
       <c r="E11" s="18">
         <v>500</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="19">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="5"/>
@@ -863,7 +873,9 @@
       <c r="E13" s="15">
         <v>100</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="5"/>
@@ -879,7 +891,9 @@
       <c r="E15" s="15">
         <v>20</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" s="5"/>

--- a/xlsxanalize/scr/data/калькулятор бара отчет.xlsx
+++ b/xlsxanalize/scr/data/калькулятор бара отчет.xlsx
@@ -69,7 +69,7 @@
     <t>имя расхода</t>
   </si>
   <si>
-    <t>qqq</t>
+    <t>Иванов Зарплата</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -721,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1111</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="5"/>
@@ -745,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="27">
-        <v>2486</v>
+        <v>500</v>
       </c>
       <c r="C4" s="10">
         <v>4</v>
@@ -762,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="9">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C5" s="10">
         <v>6</v>
@@ -798,7 +798,7 @@
     <row r="8" spans="1:7">
       <c r="B8" s="9"/>
       <c r="C8" s="10">
-        <v>333</v>
+        <v>732</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -826,23 +826,23 @@
       </c>
       <c r="B10" s="15">
         <f>SUM(B2:B9)</f>
-        <v>5697</v>
+        <v>1845</v>
       </c>
       <c r="C10" s="15">
         <f>SUM(C2:C9)</f>
-        <v>1446</v>
+        <v>1845</v>
       </c>
       <c r="D10" s="16">
         <f>B10-C10</f>
-        <v>4251</v>
+        <v>0</v>
       </c>
       <c r="E10" s="15">
         <f>F11*E11+E12*F12+F13*E13+F14*E14+F15*E15+F16*E16+F17*E17+F18*E18+F19+E20*F20</f>
-        <v>4140</v>
+        <v>532</v>
       </c>
       <c r="F10" s="17">
         <f>E10-D10</f>
-        <v>-111</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -853,7 +853,7 @@
         <v>500</v>
       </c>
       <c r="F11" s="19">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -873,9 +873,7 @@
       <c r="E13" s="15">
         <v>100</v>
       </c>
-      <c r="F13" s="21">
-        <v>1</v>
-      </c>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="5"/>
@@ -892,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -902,7 +900,9 @@
       <c r="E16" s="15">
         <v>10</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="B17" s="5"/>
@@ -917,7 +917,9 @@
       <c r="E18" s="15">
         <v>2</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="D19" s="5" t="s">
